--- a/spark_svm_stage_hit_info.xlsx
+++ b/spark_svm_stage_hit_info.xlsx
@@ -640,8 +640,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +701,115 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -995,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1184,392 +1304,392 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
       <c r="B14">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>8</v>
       </c>
       <c r="B18">
         <v>22</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>9</v>
       </c>
       <c r="B19">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
       <c r="B20">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>9</v>
       </c>
       <c r="B21">
         <v>26</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>9</v>
       </c>
       <c r="B22">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1832,6 +1952,26 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2:H35">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A10">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
